--- a/8.xlsx
+++ b/8.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,9 +259,6 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,6 +330,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,32 +1012,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -1048,12 +1051,12 @@
         <v>205</v>
       </c>
       <c r="E4" s="1">
-        <f>D4*$B$1</f>
+        <f t="shared" ref="E4:E10" si="0">D4*$B$1</f>
         <v>30.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1063,16 +1066,16 @@
         <v>189</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D10" si="0">AVERAGE(B5:C5)</f>
+        <f t="shared" ref="D5:D10" si="1">AVERAGE(B5:C5)</f>
         <v>173</v>
       </c>
       <c r="E5" s="1">
-        <f>D5*$B$1</f>
+        <f t="shared" si="0"/>
         <v>25.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1082,16 +1085,16 @@
         <v>245</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-      <c r="E6" s="1">
-        <f>D6*$B$1</f>
         <v>34.35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -1101,16 +1104,16 @@
         <v>132</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="E7" s="1">
-        <f>D7*$B$1</f>
         <v>16.95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1120,16 +1123,16 @@
         <v>179</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>165.5</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>165.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f>D8*$B$1</f>
         <v>24.824999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1139,16 +1142,16 @@
         <v>169</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>158.5</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>158.5</v>
-      </c>
-      <c r="E9" s="1">
-        <f>D9*$B$1</f>
         <v>23.774999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -1158,22 +1161,22 @@
         <v>193</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-      <c r="E10" s="1">
-        <f>D10*$B$1</f>
         <v>26.849999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -1182,7 +1185,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -1191,7 +1194,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -1200,7 +1203,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -1209,7 +1212,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -1222,18 +1225,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1249,7 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="18"/>
@@ -1255,7 +1258,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="18"/>
@@ -1264,7 +1267,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="21"/>
@@ -1273,7 +1276,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="18"/>
@@ -1295,7 +1298,7 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="18"/>
@@ -1304,7 +1307,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="21"/>
